--- a/MCiCvIT/Lab2/Table.xlsx
+++ b/MCiCvIT/Lab2/Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/УНИК/BSUIR/MCiCvIT/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38566A02-1037-A74C-A761-D7A29BDF84ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE18BA3E-1458-6A41-B848-7E57E5D57829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15980" xr2:uid="{F59C0C77-66CB-1B42-A364-005D1910283F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>{</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>if (Arr[i] &gt; 0)//n</t>
+  </si>
+  <si>
+    <t>delete[] Arr;//1</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37415E27-6A53-864C-99BF-4A92DB453A56}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -851,30 +854,44 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <f>SUM(C3:C32)</f>
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <f>SUM(D3:D32)</f>
-        <v>14</v>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f>SUM(C3:C33)</f>
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D3:D33)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
